--- a/sequences/13_retrieval_2.xlsx
+++ b/sequences/13_retrieval_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1964,6 +1988,30 @@
       <c r="F5" t="s">
         <v>205</v>
       </c>
+      <c r="G5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" t="s">
+        <v>205</v>
+      </c>
+      <c r="N5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
@@ -2116,6 +2164,30 @@
       <c r="F9" t="s">
         <v>205</v>
       </c>
+      <c r="G9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L9" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2180,6 +2252,30 @@
       <c r="F11" t="s">
         <v>205</v>
       </c>
+      <c r="G11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N11" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
@@ -2200,6 +2296,30 @@
       <c r="F12" t="s">
         <v>205</v>
       </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2220,6 +2340,30 @@
       <c r="F13" t="s">
         <v>205</v>
       </c>
+      <c r="G13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="s">
+        <v>205</v>
+      </c>
+      <c r="N13" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2328,6 +2472,30 @@
       <c r="F16" t="s">
         <v>205</v>
       </c>
+      <c r="G16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" t="s">
+        <v>205</v>
+      </c>
+      <c r="J16" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" t="s">
+        <v>205</v>
+      </c>
+      <c r="M16" t="s">
+        <v>205</v>
+      </c>
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
@@ -2348,6 +2516,30 @@
       <c r="F17" t="s">
         <v>205</v>
       </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I17" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K17" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
@@ -2412,6 +2604,30 @@
       <c r="F19" t="s">
         <v>205</v>
       </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2432,6 +2648,30 @@
       <c r="F20" t="s">
         <v>205</v>
       </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s">
+        <v>205</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2496,6 +2736,30 @@
       <c r="F22" t="s">
         <v>205</v>
       </c>
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2692,6 +2956,30 @@
       <c r="F27" t="s">
         <v>205</v>
       </c>
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2800,6 +3088,30 @@
       <c r="F30" t="s">
         <v>205</v>
       </c>
+      <c r="G30" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" t="s">
+        <v>205</v>
+      </c>
+      <c r="M30" t="s">
+        <v>205</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
@@ -2820,6 +3132,30 @@
       <c r="F31" t="s">
         <v>205</v>
       </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" t="s">
+        <v>205</v>
+      </c>
+      <c r="L31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" t="s">
+        <v>205</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
@@ -2884,6 +3220,30 @@
       <c r="F33" t="s">
         <v>205</v>
       </c>
+      <c r="G33" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
+        <v>205</v>
+      </c>
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
+      <c r="M33" t="s">
+        <v>205</v>
+      </c>
+      <c r="N33" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -2948,6 +3308,30 @@
       <c r="F35" t="s">
         <v>205</v>
       </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" t="s">
+        <v>205</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" t="s">
+        <v>205</v>
+      </c>
+      <c r="L35" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
@@ -3012,6 +3396,30 @@
       <c r="F37" t="s">
         <v>205</v>
       </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3164,6 +3572,30 @@
       <c r="F41" t="s">
         <v>205</v>
       </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" t="s">
+        <v>205</v>
+      </c>
+      <c r="I41" t="s">
+        <v>205</v>
+      </c>
+      <c r="J41" t="s">
+        <v>205</v>
+      </c>
+      <c r="K41" t="s">
+        <v>205</v>
+      </c>
+      <c r="L41" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" t="s">
+        <v>205</v>
+      </c>
+      <c r="N41" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3184,6 +3616,30 @@
       <c r="F42" t="s">
         <v>205</v>
       </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3380,6 +3836,30 @@
       <c r="F47" t="s">
         <v>205</v>
       </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" t="s">
+        <v>205</v>
+      </c>
+      <c r="J47" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" t="s">
+        <v>205</v>
+      </c>
+      <c r="L47" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" t="s">
+        <v>205</v>
+      </c>
+      <c r="N47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
@@ -3620,6 +4100,30 @@
       <c r="F53" t="s">
         <v>205</v>
       </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N53" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3904,6 +4408,30 @@
       <c r="F60" t="s">
         <v>205</v>
       </c>
+      <c r="G60" t="s">
+        <v>205</v>
+      </c>
+      <c r="H60" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" t="s">
+        <v>205</v>
+      </c>
+      <c r="J60" t="s">
+        <v>205</v>
+      </c>
+      <c r="K60" t="s">
+        <v>205</v>
+      </c>
+      <c r="L60" t="s">
+        <v>205</v>
+      </c>
+      <c r="M60" t="s">
+        <v>205</v>
+      </c>
+      <c r="N60" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -3924,6 +4452,30 @@
       <c r="F61" t="s">
         <v>205</v>
       </c>
+      <c r="G61" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" t="s">
+        <v>205</v>
+      </c>
+      <c r="I61" t="s">
+        <v>205</v>
+      </c>
+      <c r="J61" t="s">
+        <v>205</v>
+      </c>
+      <c r="K61" t="s">
+        <v>205</v>
+      </c>
+      <c r="L61" t="s">
+        <v>205</v>
+      </c>
+      <c r="M61" t="s">
+        <v>205</v>
+      </c>
+      <c r="N61" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -3988,6 +4540,30 @@
       <c r="F63" t="s">
         <v>205</v>
       </c>
+      <c r="G63" t="s">
+        <v>205</v>
+      </c>
+      <c r="H63" t="s">
+        <v>205</v>
+      </c>
+      <c r="I63" t="s">
+        <v>205</v>
+      </c>
+      <c r="J63" t="s">
+        <v>205</v>
+      </c>
+      <c r="K63" t="s">
+        <v>205</v>
+      </c>
+      <c r="L63" t="s">
+        <v>205</v>
+      </c>
+      <c r="M63" t="s">
+        <v>205</v>
+      </c>
+      <c r="N63" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4096,6 +4672,30 @@
       <c r="F66" t="s">
         <v>205</v>
       </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" t="s">
+        <v>205</v>
+      </c>
+      <c r="K66" t="s">
+        <v>205</v>
+      </c>
+      <c r="L66" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66" t="s">
+        <v>205</v>
+      </c>
+      <c r="N66" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4204,6 +4804,30 @@
       <c r="F69" t="s">
         <v>205</v>
       </c>
+      <c r="G69" t="s">
+        <v>205</v>
+      </c>
+      <c r="H69" t="s">
+        <v>205</v>
+      </c>
+      <c r="I69" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69" t="s">
+        <v>205</v>
+      </c>
+      <c r="K69" t="s">
+        <v>205</v>
+      </c>
+      <c r="L69" t="s">
+        <v>205</v>
+      </c>
+      <c r="M69" t="s">
+        <v>205</v>
+      </c>
+      <c r="N69" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
@@ -4356,6 +4980,30 @@
       <c r="F73" t="s">
         <v>205</v>
       </c>
+      <c r="G73" t="s">
+        <v>205</v>
+      </c>
+      <c r="H73" t="s">
+        <v>205</v>
+      </c>
+      <c r="I73" t="s">
+        <v>205</v>
+      </c>
+      <c r="J73" t="s">
+        <v>205</v>
+      </c>
+      <c r="K73" t="s">
+        <v>205</v>
+      </c>
+      <c r="L73" t="s">
+        <v>205</v>
+      </c>
+      <c r="M73" t="s">
+        <v>205</v>
+      </c>
+      <c r="N73" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4464,6 +5112,30 @@
       <c r="F76" t="s">
         <v>205</v>
       </c>
+      <c r="G76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H76" t="s">
+        <v>205</v>
+      </c>
+      <c r="I76" t="s">
+        <v>205</v>
+      </c>
+      <c r="J76" t="s">
+        <v>205</v>
+      </c>
+      <c r="K76" t="s">
+        <v>205</v>
+      </c>
+      <c r="L76" t="s">
+        <v>205</v>
+      </c>
+      <c r="M76" t="s">
+        <v>205</v>
+      </c>
+      <c r="N76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4528,6 +5200,30 @@
       <c r="F78" t="s">
         <v>205</v>
       </c>
+      <c r="G78" t="s">
+        <v>205</v>
+      </c>
+      <c r="H78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I78" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" t="s">
+        <v>205</v>
+      </c>
+      <c r="K78" t="s">
+        <v>205</v>
+      </c>
+      <c r="L78" t="s">
+        <v>205</v>
+      </c>
+      <c r="M78" t="s">
+        <v>205</v>
+      </c>
+      <c r="N78" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4680,6 +5376,30 @@
       <c r="F82" t="s">
         <v>205</v>
       </c>
+      <c r="G82" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" t="s">
+        <v>205</v>
+      </c>
+      <c r="K82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82" t="s">
+        <v>205</v>
+      </c>
+      <c r="M82" t="s">
+        <v>205</v>
+      </c>
+      <c r="N82" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4832,6 +5552,30 @@
       <c r="F86" t="s">
         <v>205</v>
       </c>
+      <c r="G86" t="s">
+        <v>205</v>
+      </c>
+      <c r="H86" t="s">
+        <v>205</v>
+      </c>
+      <c r="I86" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" t="s">
+        <v>205</v>
+      </c>
+      <c r="K86" t="s">
+        <v>205</v>
+      </c>
+      <c r="L86" t="s">
+        <v>205</v>
+      </c>
+      <c r="M86" t="s">
+        <v>205</v>
+      </c>
+      <c r="N86" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -4852,6 +5596,30 @@
       <c r="F87" t="s">
         <v>205</v>
       </c>
+      <c r="G87" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" t="s">
+        <v>205</v>
+      </c>
+      <c r="I87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" t="s">
+        <v>205</v>
+      </c>
+      <c r="K87" t="s">
+        <v>205</v>
+      </c>
+      <c r="L87" t="s">
+        <v>205</v>
+      </c>
+      <c r="M87" t="s">
+        <v>205</v>
+      </c>
+      <c r="N87" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -5048,6 +5816,30 @@
       <c r="F92" t="s">
         <v>205</v>
       </c>
+      <c r="G92" t="s">
+        <v>205</v>
+      </c>
+      <c r="H92" t="s">
+        <v>205</v>
+      </c>
+      <c r="I92" t="s">
+        <v>205</v>
+      </c>
+      <c r="J92" t="s">
+        <v>205</v>
+      </c>
+      <c r="K92" t="s">
+        <v>205</v>
+      </c>
+      <c r="L92" t="s">
+        <v>205</v>
+      </c>
+      <c r="M92" t="s">
+        <v>205</v>
+      </c>
+      <c r="N92" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
@@ -5156,6 +5948,30 @@
       <c r="F95" t="s">
         <v>205</v>
       </c>
+      <c r="G95" t="s">
+        <v>205</v>
+      </c>
+      <c r="H95" t="s">
+        <v>205</v>
+      </c>
+      <c r="I95" t="s">
+        <v>205</v>
+      </c>
+      <c r="J95" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95" t="s">
+        <v>205</v>
+      </c>
+      <c r="L95" t="s">
+        <v>205</v>
+      </c>
+      <c r="M95" t="s">
+        <v>205</v>
+      </c>
+      <c r="N95" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5176,6 +5992,30 @@
       <c r="F96" t="s">
         <v>205</v>
       </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+      <c r="H96" t="s">
+        <v>205</v>
+      </c>
+      <c r="I96" t="s">
+        <v>205</v>
+      </c>
+      <c r="J96" t="s">
+        <v>205</v>
+      </c>
+      <c r="K96" t="s">
+        <v>205</v>
+      </c>
+      <c r="L96" t="s">
+        <v>205</v>
+      </c>
+      <c r="M96" t="s">
+        <v>205</v>
+      </c>
+      <c r="N96" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5372,6 +6212,30 @@
       <c r="F101" t="s">
         <v>205</v>
       </c>
+      <c r="G101" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101" t="s">
+        <v>205</v>
+      </c>
+      <c r="I101" t="s">
+        <v>205</v>
+      </c>
+      <c r="J101" t="s">
+        <v>205</v>
+      </c>
+      <c r="K101" t="s">
+        <v>205</v>
+      </c>
+      <c r="L101" t="s">
+        <v>205</v>
+      </c>
+      <c r="M101" t="s">
+        <v>205</v>
+      </c>
+      <c r="N101" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5568,6 +6432,30 @@
       <c r="F106" t="s">
         <v>205</v>
       </c>
+      <c r="G106" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" t="s">
+        <v>205</v>
+      </c>
+      <c r="I106" t="s">
+        <v>205</v>
+      </c>
+      <c r="J106" t="s">
+        <v>205</v>
+      </c>
+      <c r="K106" t="s">
+        <v>205</v>
+      </c>
+      <c r="L106" t="s">
+        <v>205</v>
+      </c>
+      <c r="M106" t="s">
+        <v>205</v>
+      </c>
+      <c r="N106" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
@@ -5632,6 +6520,30 @@
       <c r="F108" t="s">
         <v>205</v>
       </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+      <c r="H108" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108" t="s">
+        <v>205</v>
+      </c>
+      <c r="L108" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5828,6 +6740,30 @@
       <c r="F113" t="s">
         <v>205</v>
       </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I113" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="K113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" t="s">
+        <v>205</v>
+      </c>
+      <c r="N113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5980,6 +6916,30 @@
       <c r="F117" t="s">
         <v>205</v>
       </c>
+      <c r="G117" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" t="s">
+        <v>205</v>
+      </c>
+      <c r="I117" t="s">
+        <v>205</v>
+      </c>
+      <c r="J117" t="s">
+        <v>205</v>
+      </c>
+      <c r="K117" t="s">
+        <v>205</v>
+      </c>
+      <c r="L117" t="s">
+        <v>205</v>
+      </c>
+      <c r="M117" t="s">
+        <v>205</v>
+      </c>
+      <c r="N117" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
@@ -6220,6 +7180,30 @@
       <c r="F123" t="s">
         <v>205</v>
       </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+      <c r="H123" t="s">
+        <v>205</v>
+      </c>
+      <c r="I123" t="s">
+        <v>205</v>
+      </c>
+      <c r="J123" t="s">
+        <v>205</v>
+      </c>
+      <c r="K123" t="s">
+        <v>205</v>
+      </c>
+      <c r="L123" t="s">
+        <v>205</v>
+      </c>
+      <c r="M123" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
@@ -6372,6 +7356,30 @@
       <c r="F127" t="s">
         <v>205</v>
       </c>
+      <c r="G127" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" t="s">
+        <v>205</v>
+      </c>
+      <c r="I127" t="s">
+        <v>205</v>
+      </c>
+      <c r="J127" t="s">
+        <v>205</v>
+      </c>
+      <c r="K127" t="s">
+        <v>205</v>
+      </c>
+      <c r="L127" t="s">
+        <v>205</v>
+      </c>
+      <c r="M127" t="s">
+        <v>205</v>
+      </c>
+      <c r="N127" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6612,6 +7620,30 @@
       <c r="F133" t="s">
         <v>205</v>
       </c>
+      <c r="G133" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" t="s">
+        <v>205</v>
+      </c>
+      <c r="I133" t="s">
+        <v>205</v>
+      </c>
+      <c r="J133" t="s">
+        <v>205</v>
+      </c>
+      <c r="K133" t="s">
+        <v>205</v>
+      </c>
+      <c r="L133" t="s">
+        <v>205</v>
+      </c>
+      <c r="M133" t="s">
+        <v>205</v>
+      </c>
+      <c r="N133" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6676,6 +7708,30 @@
       <c r="F135" t="s">
         <v>205</v>
       </c>
+      <c r="G135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" t="s">
+        <v>205</v>
+      </c>
+      <c r="I135" t="s">
+        <v>205</v>
+      </c>
+      <c r="J135" t="s">
+        <v>205</v>
+      </c>
+      <c r="K135" t="s">
+        <v>205</v>
+      </c>
+      <c r="L135" t="s">
+        <v>205</v>
+      </c>
+      <c r="M135" t="s">
+        <v>205</v>
+      </c>
+      <c r="N135" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
@@ -6696,6 +7752,30 @@
       <c r="F136" t="s">
         <v>205</v>
       </c>
+      <c r="G136" t="s">
+        <v>205</v>
+      </c>
+      <c r="H136" t="s">
+        <v>205</v>
+      </c>
+      <c r="I136" t="s">
+        <v>205</v>
+      </c>
+      <c r="J136" t="s">
+        <v>205</v>
+      </c>
+      <c r="K136" t="s">
+        <v>205</v>
+      </c>
+      <c r="L136" t="s">
+        <v>205</v>
+      </c>
+      <c r="M136" t="s">
+        <v>205</v>
+      </c>
+      <c r="N136" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
@@ -6892,6 +7972,30 @@
       <c r="F141" t="s">
         <v>205</v>
       </c>
+      <c r="G141" t="s">
+        <v>205</v>
+      </c>
+      <c r="H141" t="s">
+        <v>205</v>
+      </c>
+      <c r="I141" t="s">
+        <v>205</v>
+      </c>
+      <c r="J141" t="s">
+        <v>205</v>
+      </c>
+      <c r="K141" t="s">
+        <v>205</v>
+      </c>
+      <c r="L141" t="s">
+        <v>205</v>
+      </c>
+      <c r="M141" t="s">
+        <v>205</v>
+      </c>
+      <c r="N141" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
@@ -6912,6 +8016,30 @@
       <c r="F142" t="s">
         <v>205</v>
       </c>
+      <c r="G142" t="s">
+        <v>205</v>
+      </c>
+      <c r="H142" t="s">
+        <v>205</v>
+      </c>
+      <c r="I142" t="s">
+        <v>205</v>
+      </c>
+      <c r="J142" t="s">
+        <v>205</v>
+      </c>
+      <c r="K142" t="s">
+        <v>205</v>
+      </c>
+      <c r="L142" t="s">
+        <v>205</v>
+      </c>
+      <c r="M142" t="s">
+        <v>205</v>
+      </c>
+      <c r="N142" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6932,6 +8060,30 @@
       <c r="F143" t="s">
         <v>205</v>
       </c>
+      <c r="G143" t="s">
+        <v>205</v>
+      </c>
+      <c r="H143" t="s">
+        <v>205</v>
+      </c>
+      <c r="I143" t="s">
+        <v>205</v>
+      </c>
+      <c r="J143" t="s">
+        <v>205</v>
+      </c>
+      <c r="K143" t="s">
+        <v>205</v>
+      </c>
+      <c r="L143" t="s">
+        <v>205</v>
+      </c>
+      <c r="M143" t="s">
+        <v>205</v>
+      </c>
+      <c r="N143" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
@@ -7040,6 +8192,30 @@
       <c r="F146" t="s">
         <v>205</v>
       </c>
+      <c r="G146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H146" t="s">
+        <v>205</v>
+      </c>
+      <c r="I146" t="s">
+        <v>205</v>
+      </c>
+      <c r="J146" t="s">
+        <v>205</v>
+      </c>
+      <c r="K146" t="s">
+        <v>205</v>
+      </c>
+      <c r="L146" t="s">
+        <v>205</v>
+      </c>
+      <c r="M146" t="s">
+        <v>205</v>
+      </c>
+      <c r="N146" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
@@ -7148,6 +8324,30 @@
       <c r="F149" t="s">
         <v>205</v>
       </c>
+      <c r="G149" t="s">
+        <v>205</v>
+      </c>
+      <c r="H149" t="s">
+        <v>205</v>
+      </c>
+      <c r="I149" t="s">
+        <v>205</v>
+      </c>
+      <c r="J149" t="s">
+        <v>205</v>
+      </c>
+      <c r="K149" t="s">
+        <v>205</v>
+      </c>
+      <c r="L149" t="s">
+        <v>205</v>
+      </c>
+      <c r="M149" t="s">
+        <v>205</v>
+      </c>
+      <c r="N149" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
@@ -7212,6 +8412,30 @@
       <c r="F151" t="s">
         <v>205</v>
       </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151" t="s">
+        <v>205</v>
+      </c>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+      <c r="K151" t="s">
+        <v>205</v>
+      </c>
+      <c r="L151" t="s">
+        <v>205</v>
+      </c>
+      <c r="M151" t="s">
+        <v>205</v>
+      </c>
+      <c r="N151" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7364,6 +8588,30 @@
       <c r="F155" t="s">
         <v>205</v>
       </c>
+      <c r="G155" t="s">
+        <v>205</v>
+      </c>
+      <c r="H155" t="s">
+        <v>205</v>
+      </c>
+      <c r="I155" t="s">
+        <v>205</v>
+      </c>
+      <c r="J155" t="s">
+        <v>205</v>
+      </c>
+      <c r="K155" t="s">
+        <v>205</v>
+      </c>
+      <c r="L155" t="s">
+        <v>205</v>
+      </c>
+      <c r="M155" t="s">
+        <v>205</v>
+      </c>
+      <c r="N155" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
@@ -7384,6 +8632,30 @@
       <c r="F156" t="s">
         <v>205</v>
       </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156" t="s">
+        <v>205</v>
+      </c>
+      <c r="I156" t="s">
+        <v>205</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+      <c r="K156" t="s">
+        <v>205</v>
+      </c>
+      <c r="L156" t="s">
+        <v>205</v>
+      </c>
+      <c r="M156" t="s">
+        <v>205</v>
+      </c>
+      <c r="N156" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7536,6 +8808,30 @@
       <c r="F160" t="s">
         <v>205</v>
       </c>
+      <c r="G160" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160" t="s">
+        <v>205</v>
+      </c>
+      <c r="I160" t="s">
+        <v>205</v>
+      </c>
+      <c r="J160" t="s">
+        <v>205</v>
+      </c>
+      <c r="K160" t="s">
+        <v>205</v>
+      </c>
+      <c r="L160" t="s">
+        <v>205</v>
+      </c>
+      <c r="M160" t="s">
+        <v>205</v>
+      </c>
+      <c r="N160" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
@@ -7776,6 +9072,30 @@
       <c r="F166" t="s">
         <v>205</v>
       </c>
+      <c r="G166" t="s">
+        <v>205</v>
+      </c>
+      <c r="H166" t="s">
+        <v>205</v>
+      </c>
+      <c r="I166" t="s">
+        <v>205</v>
+      </c>
+      <c r="J166" t="s">
+        <v>205</v>
+      </c>
+      <c r="K166" t="s">
+        <v>205</v>
+      </c>
+      <c r="L166" t="s">
+        <v>205</v>
+      </c>
+      <c r="M166" t="s">
+        <v>205</v>
+      </c>
+      <c r="N166" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -7884,6 +9204,30 @@
       <c r="F169" t="s">
         <v>205</v>
       </c>
+      <c r="G169" t="s">
+        <v>205</v>
+      </c>
+      <c r="H169" t="s">
+        <v>205</v>
+      </c>
+      <c r="I169" t="s">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>205</v>
+      </c>
+      <c r="K169" t="s">
+        <v>205</v>
+      </c>
+      <c r="L169" t="s">
+        <v>205</v>
+      </c>
+      <c r="M169" t="s">
+        <v>205</v>
+      </c>
+      <c r="N169" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
@@ -8080,6 +9424,30 @@
       <c r="F174" t="s">
         <v>205</v>
       </c>
+      <c r="G174" t="s">
+        <v>205</v>
+      </c>
+      <c r="H174" t="s">
+        <v>205</v>
+      </c>
+      <c r="I174" t="s">
+        <v>205</v>
+      </c>
+      <c r="J174" t="s">
+        <v>205</v>
+      </c>
+      <c r="K174" t="s">
+        <v>205</v>
+      </c>
+      <c r="L174" t="s">
+        <v>205</v>
+      </c>
+      <c r="M174" t="s">
+        <v>205</v>
+      </c>
+      <c r="N174" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8276,6 +9644,30 @@
       <c r="F179" t="s">
         <v>205</v>
       </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
+        <v>205</v>
+      </c>
+      <c r="J179" t="s">
+        <v>205</v>
+      </c>
+      <c r="K179" t="s">
+        <v>205</v>
+      </c>
+      <c r="L179" t="s">
+        <v>205</v>
+      </c>
+      <c r="M179" t="s">
+        <v>205</v>
+      </c>
+      <c r="N179" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8296,6 +9688,30 @@
       <c r="F180" t="s">
         <v>205</v>
       </c>
+      <c r="G180" t="s">
+        <v>205</v>
+      </c>
+      <c r="H180" t="s">
+        <v>205</v>
+      </c>
+      <c r="I180" t="s">
+        <v>205</v>
+      </c>
+      <c r="J180" t="s">
+        <v>205</v>
+      </c>
+      <c r="K180" t="s">
+        <v>205</v>
+      </c>
+      <c r="L180" t="s">
+        <v>205</v>
+      </c>
+      <c r="M180" t="s">
+        <v>205</v>
+      </c>
+      <c r="N180" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
@@ -8360,6 +9776,30 @@
       <c r="F182" t="s">
         <v>205</v>
       </c>
+      <c r="G182" t="s">
+        <v>205</v>
+      </c>
+      <c r="H182" t="s">
+        <v>205</v>
+      </c>
+      <c r="I182" t="s">
+        <v>205</v>
+      </c>
+      <c r="J182" t="s">
+        <v>205</v>
+      </c>
+      <c r="K182" t="s">
+        <v>205</v>
+      </c>
+      <c r="L182" t="s">
+        <v>205</v>
+      </c>
+      <c r="M182" t="s">
+        <v>205</v>
+      </c>
+      <c r="N182" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8468,6 +9908,30 @@
       <c r="F185" t="s">
         <v>205</v>
       </c>
+      <c r="G185" t="s">
+        <v>205</v>
+      </c>
+      <c r="H185" t="s">
+        <v>205</v>
+      </c>
+      <c r="I185" t="s">
+        <v>205</v>
+      </c>
+      <c r="J185" t="s">
+        <v>205</v>
+      </c>
+      <c r="K185" t="s">
+        <v>205</v>
+      </c>
+      <c r="L185" t="s">
+        <v>205</v>
+      </c>
+      <c r="M185" t="s">
+        <v>205</v>
+      </c>
+      <c r="N185" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8576,6 +10040,30 @@
       <c r="F188" t="s">
         <v>205</v>
       </c>
+      <c r="G188" t="s">
+        <v>205</v>
+      </c>
+      <c r="H188" t="s">
+        <v>205</v>
+      </c>
+      <c r="I188" t="s">
+        <v>205</v>
+      </c>
+      <c r="J188" t="s">
+        <v>205</v>
+      </c>
+      <c r="K188" t="s">
+        <v>205</v>
+      </c>
+      <c r="L188" t="s">
+        <v>205</v>
+      </c>
+      <c r="M188" t="s">
+        <v>205</v>
+      </c>
+      <c r="N188" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
@@ -8596,6 +10084,30 @@
       <c r="F189" t="s">
         <v>205</v>
       </c>
+      <c r="G189" t="s">
+        <v>205</v>
+      </c>
+      <c r="H189" t="s">
+        <v>205</v>
+      </c>
+      <c r="I189" t="s">
+        <v>205</v>
+      </c>
+      <c r="J189" t="s">
+        <v>205</v>
+      </c>
+      <c r="K189" t="s">
+        <v>205</v>
+      </c>
+      <c r="L189" t="s">
+        <v>205</v>
+      </c>
+      <c r="M189" t="s">
+        <v>205</v>
+      </c>
+      <c r="N189" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
@@ -8614,6 +10126,30 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
+        <v>205</v>
+      </c>
+      <c r="G190" t="s">
+        <v>205</v>
+      </c>
+      <c r="H190" t="s">
+        <v>205</v>
+      </c>
+      <c r="I190" t="s">
+        <v>205</v>
+      </c>
+      <c r="J190" t="s">
+        <v>205</v>
+      </c>
+      <c r="K190" t="s">
+        <v>205</v>
+      </c>
+      <c r="L190" t="s">
+        <v>205</v>
+      </c>
+      <c r="M190" t="s">
+        <v>205</v>
+      </c>
+      <c r="N190" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/13_retrieval_2.xlsx
+++ b/sequences/13_retrieval_2.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>reisen</t>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>wählen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>weinen</t>
+  </si>
+  <si>
+    <t>zeugen</t>
+  </si>
+  <si>
+    <t>brauen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>schlafen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>tanzen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>sprechen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>schultern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>heißen</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>rauben</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>ziehen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>binden</t>
+  </si>
+  <si>
+    <t>drücken</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>melden</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>herzen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>kämpfen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>wiegen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>segeln</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>treffen</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schlagen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>lenken</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>wetten</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>parken</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>holen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>wecken</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>wohnen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>schicken</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>hauen</t>
   </si>
   <si>
     <t>stoßen</t>
   </si>
   <si>
-    <t>schulden</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>leiden</t>
-  </si>
-  <si>
-    <t>greifen</t>
-  </si>
-  <si>
-    <t>tanzen</t>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>locken</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>deuten</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>schnellen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>bitten</t>
   </si>
   <si>
     <t>klappen</t>
   </si>
   <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>lassen</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>leihen</t>
+  </si>
+  <si>
+    <t>ahnen</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>knurren</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
     <t>rechnen</t>
   </si>
   <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>knien</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>äußern</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>schützen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>morden</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>warten</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>rühren</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>beißen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>melden</t>
-  </si>
-  <si>
-    <t>trösten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>meistern</t>
-  </si>
-  <si>
     <t>wehen</t>
   </si>
   <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>spinnen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>räumen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>pflanzen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>rauben</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>lenken</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>wundern</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>steuern</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>ruhen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
     <t>hupen</t>
   </si>
   <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>kichern</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>träumen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>fällen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>graben</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>triefen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>suchen</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>flammen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>schauen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>beichten</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>sichern</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>testen</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>stinken</t>
-  </si>
-  <si>
-    <t>nutzen</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>dienen</t>
+    <t>trennen</t>
   </si>
   <si>
     <t>quälen</t>
   </si>
   <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>drücken</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>reiten</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>schicken</t>
+    <t>arten</t>
   </si>
   <si>
     <t>N/A</t>
